--- a/test/check06/check06_test06_in.xlsx
+++ b/test/check06/check06_test06_in.xlsx
@@ -5,33 +5,34 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\HFCCode\test\check06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\test\check06\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="758" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="758"/>
   </bookViews>
   <sheets>
-    <sheet name="1. incomplete" sheetId="1" r:id="rId1"/>
-    <sheet name="2. duplicates" sheetId="2" r:id="rId2"/>
-    <sheet name="3. consent" sheetId="3" r:id="rId3"/>
-    <sheet name="4. no miss" sheetId="4" r:id="rId4"/>
-    <sheet name="5. follow up" sheetId="5" r:id="rId5"/>
-    <sheet name="6. skip" sheetId="6" r:id="rId6"/>
-    <sheet name="7. all miss" sheetId="7" r:id="rId7"/>
-    <sheet name="8. constraints" sheetId="8" r:id="rId8"/>
-    <sheet name="9. specify" sheetId="9" r:id="rId9"/>
-    <sheet name="10. dates" sheetId="10" r:id="rId10"/>
-    <sheet name="11. outliers" sheetId="11" r:id="rId11"/>
-    <sheet name="enumdb" sheetId="13" r:id="rId12"/>
-    <sheet name="researchdb" sheetId="14" r:id="rId13"/>
+    <sheet name="0. setup" sheetId="15" r:id="rId1"/>
+    <sheet name="1. incomplete" sheetId="1" r:id="rId2"/>
+    <sheet name="2. duplicates" sheetId="2" r:id="rId3"/>
+    <sheet name="3. consent" sheetId="3" r:id="rId4"/>
+    <sheet name="4. no miss" sheetId="4" r:id="rId5"/>
+    <sheet name="5. follow up" sheetId="5" r:id="rId6"/>
+    <sheet name="6. skip" sheetId="6" r:id="rId7"/>
+    <sheet name="7. all miss" sheetId="7" r:id="rId8"/>
+    <sheet name="8. constraints" sheetId="8" r:id="rId9"/>
+    <sheet name="9. specify" sheetId="9" r:id="rId10"/>
+    <sheet name="10. dates" sheetId="10" r:id="rId11"/>
+    <sheet name="11. outliers" sheetId="11" r:id="rId12"/>
+    <sheet name="enumdb" sheetId="13" r:id="rId13"/>
+    <sheet name="researchdb" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>variable</t>
   </si>
@@ -125,12 +126,84 @@
   <si>
     <t>q2 q3 q4</t>
   </si>
+  <si>
+    <t>High Frequency Checks</t>
+  </si>
+  <si>
+    <t>1. File Definitions</t>
+  </si>
+  <si>
+    <t>Stata Dataset</t>
+  </si>
+  <si>
+    <t>HFC Input File</t>
+  </si>
+  <si>
+    <t>HFC Output File</t>
+  </si>
+  <si>
+    <t>HFC Enumerator File</t>
+  </si>
+  <si>
+    <t>HFC Research File</t>
+  </si>
+  <si>
+    <t>Replacements File (opt.)</t>
+  </si>
+  <si>
+    <t>Master Tracking Dataset (opt.)</t>
+  </si>
+  <si>
+    <t>2. Important Variables</t>
+  </si>
+  <si>
+    <t>Submission Date</t>
+  </si>
+  <si>
+    <t>Survey ID</t>
+  </si>
+  <si>
+    <t>Enumerator ID</t>
+  </si>
+  <si>
+    <t>Form Version</t>
+  </si>
+  <si>
+    <t>Geographic Cluster</t>
+  </si>
+  <si>
+    <t>3. Survey Definitions</t>
+  </si>
+  <si>
+    <t>Target Sample Size</t>
+  </si>
+  <si>
+    <t>SurveyCTO Server Name</t>
+  </si>
+  <si>
+    <t>Missing Value (.d)</t>
+  </si>
+  <si>
+    <t>Missing Value (.r)</t>
+  </si>
+  <si>
+    <t>Missing Value (.n)</t>
+  </si>
+  <si>
+    <t>4. HFC Options</t>
+  </si>
+  <si>
+    <t>Use SD for Outliers</t>
+  </si>
+  <si>
+    <t>Use Label for Factors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -140,16 +213,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -157,11 +254,187 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -170,6 +443,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,25 +861,80 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1876211</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>339754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF00C65B-055E-4D19-97B0-1A380AF08D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924086" y="0"/>
+          <a:ext cx="1505164" cy="720754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -563,8 +942,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="47625"/>
-          <a:ext cx="3648075" cy="1362075"/>
+          <a:off x="5572125" y="47624"/>
+          <a:ext cx="3648075" cy="2047875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -598,17 +977,17 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 1</a:t>
+            <a:t>HFC Check # 9</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check that all</a:t>
+            <a:t>Check specify</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> surveys are complete.</a:t>
+            <a:t> other variables for recodes or recategorizations.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -616,12 +995,14 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>Often</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>It is an IPA best practice to terminate surveys with a field for the enumerator to enter the status of the interview. This check verifies that all surveys in memory are completed, and lists incomplete surveys in the output file.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+            <a:t> categorical questions will include an other category with the option for the respondent to identify their own category in a separate text box. This check lists the non-missing values for these specify other variables in the output file to facilitate recodes (a user specifies a value that matches one of the original categories) or re-categorizations (if many similar other values are encountered).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -629,23 +1010,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -653,7 +1034,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="1514475"/>
+          <a:off x="5572125" y="2181225"/>
           <a:ext cx="3667125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -690,7 +1071,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>variable</a:t>
+            <a:t>specify_variable</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
@@ -700,7 +1081,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the name of the survey status variable. </a:t>
+            <a:t>This column specifies the names of the specify other variables.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -710,23 +1091,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
+        <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,85 +1115,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="2181225"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>complete_value</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the value of the survey status variable that corresponds with a completed survey.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6962775" y="2876550"/>
+          <a:off x="5572125" y="2867025"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -849,7 +1152,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>keep_variable</a:t>
+            <a:t>output_variable</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -882,23 +1185,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11">
+        <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -906,7 +1209,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="3571875"/>
+          <a:off x="5572125" y="3571875"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -960,23 +1263,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7">
+        <xdr:cNvPr id="6" name="Group 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -984,7 +1287,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11258550" y="314325"/>
+          <a:off x="8429625" y="695325"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -992,10 +1295,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8">
+          <xdr:cNvPr id="7" name="TextBox 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1054,10 +1357,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9">
+          <xdr:cNvPr id="8" name="Rectangle 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1102,10 +1405,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 12">
+          <xdr:cNvPr id="9" name="Rectangle 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1154,7 +1457,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2066,7 +2369,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2685,7 +2988,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3373,6 +3676,625 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="47625"/>
+          <a:ext cx="3648075" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>HFC Check # 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Check that all</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> surveys are complete.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>It is an IPA best practice to terminate surveys with a field for the enumerator to enter the status of the interview. This check verifies that all surveys in memory are completed, and lists incomplete surveys in the output file.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="1514475"/>
+          <a:ext cx="3667125" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of the survey status variable. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="2181225"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>complete_value</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the value of the survey status variable that corresponds with a completed survey.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="2876550"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>keep_variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>enumerator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> are displayed.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="3571875"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>notes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11258550" y="314325"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3993,7 +4915,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4612,7 +5534,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5151,7 +6073,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5707,7 +6629,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6400,7 +7322,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6941,7 +7863,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7782,549 +8704,6 @@
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11134727" y="2266950"/>
-            <a:ext cx="209548" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="47624"/>
-          <a:ext cx="3648075" cy="2047875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 9</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check specify</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> other variables for recodes or recategorizations.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
-            <a:t>Often</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t> categorical questions will include an other category with the option for the respondent to identify their own category in a separate text box. This check lists the non-missing values for these specify other variables in the output file to facilitate recodes (a user specifies a value that matches one of the original categories) or re-categorizations (if many similar other values are encountered).</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="2181225"/>
-          <a:ext cx="3667125" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>specify_variable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the names of the specify other variables.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="2867025"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>id </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>enumerator</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t> are displayed.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="3571875"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>notes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8429625" y="695325"/>
-          <a:ext cx="1095375" cy="723900"/>
-          <a:chOff x="10401300" y="1847850"/>
-          <a:chExt cx="1095375" cy="723900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10401300" y="1847850"/>
-            <a:ext cx="1095375" cy="723900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Required</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Optional</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11134727" y="1933575"/>
-            <a:ext cx="209548" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8670,46 +9049,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="28"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="28"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="28"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="23" priority="2">
-      <formula>$A1="variable"</formula>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$A1="specify_variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="22" priority="1">
+  <conditionalFormatting sqref="A1:C1048576">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8718,7 +9363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -8785,7 +9430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -8843,7 +9488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
@@ -9092,7 +9737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9113,6 +9758,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="expression" dxfId="23" priority="2">
+      <formula>$A1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E1048576">
+    <cfRule type="expression" dxfId="22" priority="1">
+      <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -9158,7 +9853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -9201,7 +9896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -9268,7 +9963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -9317,11 +10012,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -9394,7 +10089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C602"/>
   <sheetViews>
@@ -10034,7 +10729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
@@ -10546,91 +11241,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>$A1="specify_variable"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>$A1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/test/check06/check06_test06_in.xlsx
+++ b/test/check06/check06_test06_in.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\test\check06\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="758"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="758" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="0. setup" sheetId="15" r:id="rId1"/>
@@ -25,14 +25,16 @@
     <sheet name="10. dates" sheetId="10" r:id="rId11"/>
     <sheet name="11. outliers" sheetId="11" r:id="rId12"/>
     <sheet name="enumdb" sheetId="13" r:id="rId13"/>
-    <sheet name="researchdb" sheetId="14" r:id="rId14"/>
+    <sheet name="research oneway" sheetId="16" r:id="rId14"/>
+    <sheet name="research twoway" sheetId="17" r:id="rId15"/>
+    <sheet name="researchdb" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>variable</t>
   </si>
@@ -197,6 +199,12 @@
   </si>
   <si>
     <t>Use Label for Factors</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>by</t>
   </si>
 </sst>
 </file>
@@ -444,24 +452,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -495,11 +485,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -3667,6 +3733,1133 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F8040B9-9E77-49FC-967C-1282212A2C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="47625"/>
+          <a:ext cx="3648075" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Research</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> Dashboard: One-Way Summary</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Display one-way summaries of important research variables to monitor responses frequecies</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>/distributions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t> command produces a spreadsheet of one-way variable summaries. It can be used to monitor response frequencies/distributions for key variables and help identify any threats to research validity.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F31199-515F-476F-979B-FFF319F1430F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="1762125"/>
+          <a:ext cx="3667125" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the list of variables which will be used to create one-way summaries</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99FD11A-C5A5-452C-BEC3-02228F88D6D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="2657475"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of variables whose rates of missing values are output per enumerator</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F934A4C7-AB33-466D-BFAB-5BE3F1E0C319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8439150" y="495300"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4132726B-E1D8-4F9D-9113-598A44FD3708}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC50082B-4FD8-47E8-972D-A6418290CFF3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E861CDE6-7EDE-46FC-8908-3ECFC2C3C4CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EAC3129-6935-441F-BDDA-A7DD8BFC6612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="3371850"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90833A03-07F6-403C-89C3-03C27CED04A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="47625"/>
+          <a:ext cx="3648075" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Research</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> Dashboard: Two-Way Summaries</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Display two-way summaries of important research variables to monitor responses frequecies</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>/distributions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t> command produces a spreadsheet of two-way variable summaries. It can be used to monitor response frequencies/distributions for key variables and help identify any threats to research validity.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19F1B60-582D-4F5C-B0E5-890F9F7155D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="1762125"/>
+          <a:ext cx="3667125" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the list of variables which will be used to create one-way summaries</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C74662B-3DFB-49D0-88F6-4C05DBC74B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="2657475"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of variables whose rates of missing values are output per enumerator</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1A350B-4FC5-4B55-A2DD-F5944FABA4FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="3352800"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>by</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the variable </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722DC536-A13A-46B9-B457-CC8461581C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9820275" y="495300"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63BC3F8A-44EF-4176-92A2-0626B67CCC3B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F5125E-4BFB-4EE1-97AD-B383177AEEBE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538CBFC5-2440-445F-8E65-69F975FF8955}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1760DEB8-BC30-492B-B672-69EB86F6D2F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="4048125"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9049,223 +10242,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="23" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="17"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="22"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="22"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="28"/>
+      <c r="A33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9278,6 +10472,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9349,12 +10544,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$A1="specify_variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9365,6 +10560,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9416,12 +10612,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$A1="startdate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9432,6 +10628,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9474,12 +10671,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9490,6 +10687,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9723,12 +10921,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$A1="dkrf_variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"", $E1&lt;&gt;"", $F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9739,6 +10937,387 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="3"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$A1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C1048576">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $C1&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:D89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="D81" s="4"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$A$1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:D1048576">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>OR(#REF!&lt;&gt;"", #REF!&lt;&gt;"", $A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9759,6 +11338,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9793,12 +11373,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9809,6 +11389,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9839,12 +11420,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9855,6 +11436,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9882,12 +11464,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9898,6 +11480,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9949,12 +11532,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9965,6 +11548,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9998,12 +11582,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10014,6 +11598,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10075,12 +11660,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10091,6 +11676,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C602"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -10715,12 +12301,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10731,6 +12317,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11229,12 +12816,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/check06/check06_test06_in.xlsx
+++ b/test/check06/check06_test06_in.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\test\check06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherboyer/Dropbox/Github/scratch/high-frequency-checks/test/check06/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E635B0DC-2C94-804A-A0DC-F1A43071512C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" tabRatio="758" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="11980" windowHeight="5060" tabRatio="758" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0. setup" sheetId="15" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="3. consent" sheetId="3" r:id="rId4"/>
     <sheet name="4. no miss" sheetId="4" r:id="rId5"/>
     <sheet name="5. follow up" sheetId="5" r:id="rId6"/>
-    <sheet name="6. skip" sheetId="6" r:id="rId7"/>
+    <sheet name="6. logic" sheetId="6" r:id="rId7"/>
     <sheet name="7. all miss" sheetId="7" r:id="rId8"/>
     <sheet name="8. constraints" sheetId="8" r:id="rId9"/>
     <sheet name="9. specify" sheetId="9" r:id="rId10"/>
@@ -29,7 +30,7 @@
     <sheet name="research twoway" sheetId="17" r:id="rId15"/>
     <sheet name="researchdb" sheetId="14" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -210,8 +211,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2884,7 +2885,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9810750" y="361950"/>
+          <a:off x="11166475" y="361950"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -4618,7 +4619,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9820275" y="495300"/>
+          <a:off x="11176000" y="495300"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -8345,7 +8346,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11391900" y="381000"/>
+          <a:off x="12966700" y="381000"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -10241,7 +10242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -10249,216 +10250,216 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1">
+    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+    <row r="11" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+    <row r="29" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
     </row>
   </sheetData>
@@ -10471,7 +10472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -10479,9 +10480,9 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -10492,53 +10493,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C17" s="3"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
@@ -10559,7 +10560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -10567,9 +10568,9 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -10592,19 +10593,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -10627,7 +10628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -10635,9 +10636,9 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10652,19 +10653,19 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="6"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -10686,7 +10687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:F89"/>
   <sheetViews>
@@ -10694,9 +10695,9 @@
       <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -10716,13 +10717,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="E2" s="5"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -10730,20 +10731,20 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -10751,11 +10752,11 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -10763,11 +10764,11 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -10775,11 +10776,11 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -10787,11 +10788,11 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10799,11 +10800,11 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -10811,11 +10812,11 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -10823,11 +10824,11 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -10835,11 +10836,11 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -10847,11 +10848,11 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -10859,11 +10860,11 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -10871,11 +10872,11 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -10883,11 +10884,11 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -10895,11 +10896,11 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -10907,11 +10908,11 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -10936,7 +10937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:C89"/>
   <sheetViews>
@@ -10944,9 +10945,9 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10957,155 +10958,155 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="C68" s="4"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="C70" s="4"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="C81" s="4"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -11127,17 +11128,17 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11151,149 +11152,149 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D26" s="4"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D37" s="4"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D48" s="4"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D59" s="4"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D70" s="4"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D81" s="4"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -11316,7 +11317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -11324,9 +11325,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -11337,7 +11338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -11345,13 +11346,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11368,7 +11369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
     </row>
   </sheetData>
@@ -11388,7 +11389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -11396,9 +11397,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11412,10 +11413,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
     </row>
   </sheetData>
@@ -11435,7 +11436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -11443,9 +11444,9 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11459,7 +11460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
     </row>
   </sheetData>
@@ -11479,7 +11480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -11487,9 +11488,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11500,34 +11501,34 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
   </sheetData>
@@ -11547,7 +11548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -11555,9 +11556,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11568,16 +11569,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
     </row>
   </sheetData>
@@ -11597,20 +11598,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11627,7 +11628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -11641,18 +11642,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -11675,7 +11676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C602"/>
   <sheetViews>
@@ -11683,9 +11684,9 @@
       <selection activeCell="B32" sqref="B32:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11696,607 +11697,607 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" s="3"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C17" s="3"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C512" s="3"/>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C514" s="3"/>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C527" s="3"/>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C529" s="3"/>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C542" s="3"/>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C544" s="3"/>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C557" s="3"/>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C559" s="3"/>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C572" s="3"/>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C574" s="3"/>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C587" s="3"/>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C589" s="3"/>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C602" s="3"/>
     </row>
   </sheetData>
@@ -12316,7 +12317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G72"/>
   <sheetViews>
@@ -12324,9 +12325,9 @@
       <selection activeCell="A2" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12349,465 +12350,465 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
